--- a/public/data/Universities.xlsx
+++ b/public/data/Universities.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="424">
   <si>
     <t>School Name</t>
   </si>
@@ -979,9 +979,6 @@
     <t>http://www.sandiego.edu/admissions/graduate/degrees/</t>
   </si>
   <si>
-    <t>LIBERAL ART COLLEGE (私立)文理学院</t>
-  </si>
-  <si>
     <t>Boston College (BC)</t>
   </si>
   <si>
@@ -1038,9 +1035,6 @@
   </si>
   <si>
     <t>塔夫茲大学（英语：Tufts University）是一所研究型大学，位于美国教育重镇波士顿，是美国公认的优秀大学之一。塔夫茨大学有10，000名左右本科生与研究生。大学本科有两个学院：文理学院和工程学院。研究生院有文理研究生院、工程研究生院、医学院、生物科学院、牙医学院、营养学院、兽医学院、和著名的佛莱彻法律与外交学院。佛莱彻是美国最早的国际关系研究生院。塔夫茨大学重视培养学生的公民社会活动和公共服务意识，并以其国际关系专业和海外学习项目而闻名。</t>
-  </si>
-  <si>
-    <t>INSTITUTE OF TECHNOLOGY 理工学院 (PUBLIC / PRIVATE)</t>
   </si>
   <si>
     <r>
@@ -1114,38 +1108,6 @@
     <t>http://gradadmissions.mit.edu/programs/fields-of-study</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Georgia Institute of Technology (Georgia Tech) </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FFFF9900"/>
-      </rPr>
-      <t>(PUBLIC)</t>
-    </r>
-  </si>
-  <si>
-    <t>PUBLIC 公立/公办</t>
-  </si>
-  <si>
-    <t>PUBLIC UNIVERSITIES 公立大学</t>
-  </si>
-  <si>
-    <t>ALABAMA (AL)</t>
-  </si>
-  <si>
-    <t>ALASKA (AK)</t>
-  </si>
-  <si>
-    <t>ARIZONA (AK)</t>
-  </si>
-  <si>
-    <t>ARKANSAS (AR)</t>
-  </si>
-  <si>
-    <t>CALIFORNIA (CA)</t>
-  </si>
-  <si>
     <t>University of California—Santa Barbara (UC-Santa Barbara)</t>
   </si>
   <si>
@@ -1256,18 +1218,6 @@
   </si>
   <si>
     <t>https://grad.ucla.edu/schools/</t>
-  </si>
-  <si>
-    <t>COLORADO (CO)</t>
-  </si>
-  <si>
-    <t>CONNECTICUT (CT)</t>
-  </si>
-  <si>
-    <t>DELAWARE (DE)</t>
-  </si>
-  <si>
-    <t>FLORIDA (FL)</t>
   </si>
   <si>
     <t>University of Florida</t>
@@ -1301,18 +1251,6 @@
     <t>http://gradcatalog.ufl.edu/content.php?catoid=11&amp;navoid=2475</t>
   </si>
   <si>
-    <t>GEORGIA (GA)</t>
-  </si>
-  <si>
-    <t>HAWAII (HI)</t>
-  </si>
-  <si>
-    <t>IDAHO (ID)</t>
-  </si>
-  <si>
-    <t>ILLINOIS (IL)</t>
-  </si>
-  <si>
     <t>University of illinois Urbana-Champaign</t>
   </si>
   <si>
@@ -1342,27 +1280,6 @@
     <t>https://grad.illinois.edu/admissions/depts</t>
   </si>
   <si>
-    <t>INDIANA (IN)</t>
-  </si>
-  <si>
-    <t>IOWA (IA)</t>
-  </si>
-  <si>
-    <t>KANSAS (KS)</t>
-  </si>
-  <si>
-    <t>KENTUCKY (KY)</t>
-  </si>
-  <si>
-    <t>LOUISIANA (LA)</t>
-  </si>
-  <si>
-    <t>MAINE (ME)</t>
-  </si>
-  <si>
-    <t>MARYLAND (MD)</t>
-  </si>
-  <si>
     <t>University of Maryland—College Park</t>
   </si>
   <si>
@@ -1390,45 +1307,6 @@
   </si>
   <si>
     <t>https://academiccatalog.umd.edu/graduate/programs/</t>
-  </si>
-  <si>
-    <t>MASSACHUSETTS (MA)</t>
-  </si>
-  <si>
-    <t>MICHIGAN (MI)</t>
-  </si>
-  <si>
-    <t>MINNESOTA (MN)</t>
-  </si>
-  <si>
-    <t>MISSISSIPPI (MS)</t>
-  </si>
-  <si>
-    <t>MISSOURI (MO)</t>
-  </si>
-  <si>
-    <t>MONTANA (MT)</t>
-  </si>
-  <si>
-    <t>NEBRASKA (NE)</t>
-  </si>
-  <si>
-    <t>NEVADA (NV)</t>
-  </si>
-  <si>
-    <t>NEW HAMPSHIRE (NH)</t>
-  </si>
-  <si>
-    <t>NEW JERSEY (NJ)</t>
-  </si>
-  <si>
-    <t>NEW MEXICO (NM)</t>
-  </si>
-  <si>
-    <t>NEW YORK (NY)</t>
-  </si>
-  <si>
-    <t>NORTH CAROLINA (NC)</t>
   </si>
   <si>
     <t>University of North Carolina—Chapel Hill (UNC)</t>
@@ -1461,22 +1339,7 @@
     <t>https://gradschool.unc.edu/academics/degreeprograms/</t>
   </si>
   <si>
-    <t>NORTH DAKOTA (ND)</t>
-  </si>
-  <si>
-    <t>OHIO (OH)</t>
-  </si>
-  <si>
-    <t>OKLAHOMA (OK)</t>
-  </si>
-  <si>
-    <t>OREGON (OR)</t>
-  </si>
-  <si>
     <t>University of Oregon</t>
-  </si>
-  <si>
-    <t>PENNSYLVANIA (PA)</t>
   </si>
   <si>
     <t>University of Pittsburgh</t>
@@ -1502,21 +1365,6 @@
   </si>
   <si>
     <t>http://www.pitt.edu/admissions/graduate-professional</t>
-  </si>
-  <si>
-    <t>RHODE ISLAND (RI)</t>
-  </si>
-  <si>
-    <t>SOUTH CAROLINA (SC)</t>
-  </si>
-  <si>
-    <t>SOUTH DAKOTA (SD)</t>
-  </si>
-  <si>
-    <t>TENNESSEE (TN)</t>
-  </si>
-  <si>
-    <t>TEXAS (TX)</t>
   </si>
   <si>
     <t>Texas A&amp;M University</t>
@@ -1554,15 +1402,6 @@
   </si>
   <si>
     <t>https://gradschool.utexas.edu/connect</t>
-  </si>
-  <si>
-    <t>UTAH (UT)</t>
-  </si>
-  <si>
-    <t>VERMONT (VT)</t>
-  </si>
-  <si>
-    <t>VIRGINIA (VA)</t>
   </si>
   <si>
     <t>University of Virginia (UVA)</t>
@@ -1596,9 +1435,6 @@
     <t>http://gradstudies.virginia.edu/apply</t>
   </si>
   <si>
-    <t>WASHINGTON (WA)</t>
-  </si>
-  <si>
     <t>University of Washington (UW)</t>
   </si>
   <si>
@@ -1624,16 +1460,7 @@
     <t>http://grad.uw.edu/admissions/find-a-program/</t>
   </si>
   <si>
-    <t>WASHINGTON DC, DISTRICT OF COLUMBIA (DC)</t>
-  </si>
-  <si>
-    <t>WEST VIRGINIA (WV)</t>
-  </si>
-  <si>
-    <t>WISCONSIN (WI)</t>
-  </si>
-  <si>
-    <t>University of Wisconsin—Madison (UW, UW-Madison) (威斯康辛州立大学系统的旗帜校)</t>
+    <t>University of Wisconsin—Madison (UW, UW-Madison)</t>
   </si>
   <si>
     <t>威斯康星大学麦迪逊分校、威斯康辛大学麦迪逊分校、威斯康辛大学</t>
@@ -1660,16 +1487,13 @@
   </si>
   <si>
     <t>https://grad.wisc.edu/academic-programs/</t>
-  </si>
-  <si>
-    <t>WYOMING (WY)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1754,9 +1578,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-    </font>
-    <font>
       <sz val="10.0"/>
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
@@ -1773,7 +1594,7 @@
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1790,30 +1611,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
-        <bgColor rgb="FFCFE2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6B8AF"/>
-        <bgColor rgb="FFE6B8AF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1881,7 +1678,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1966,51 +1763,14 @@
     <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2725,33 +2485,74 @@
         <v>167</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q18" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
     <row r="19">
       <c r="A19" s="26" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
@@ -2760,39 +2561,39 @@
       <c r="N19" s="20"/>
       <c r="O19" s="20"/>
       <c r="P19" s="21" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="Q19" s="21" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="26" t="s">
-        <v>178</v>
+      <c r="A20" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>184</v>
+        <v>193</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>194</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -2801,39 +2602,39 @@
       <c r="N20" s="20"/>
       <c r="O20" s="20"/>
       <c r="P20" s="21" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="Q20" s="21" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="15" t="s">
-        <v>189</v>
+      <c r="A21" s="26" t="s">
+        <v>199</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>194</v>
+        <v>204</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>205</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
@@ -2842,39 +2643,39 @@
       <c r="N21" s="20"/>
       <c r="O21" s="20"/>
       <c r="P21" s="21" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="26" t="s">
-        <v>199</v>
+      <c r="A22" s="15" t="s">
+        <v>209</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
@@ -2883,39 +2684,39 @@
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
       <c r="P22" s="21" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="15" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
@@ -2924,39 +2725,39 @@
       <c r="N23" s="20"/>
       <c r="O23" s="20"/>
       <c r="P23" s="21" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="Q23" s="21" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="15" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>228</v>
+        <v>237</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>238</v>
       </c>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
@@ -2965,39 +2766,39 @@
       <c r="N24" s="20"/>
       <c r="O24" s="20"/>
       <c r="P24" s="21" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="Q24" s="21" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="15" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>238</v>
+        <v>248</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>249</v>
       </c>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
@@ -3006,39 +2807,39 @@
       <c r="N25" s="20"/>
       <c r="O25" s="20"/>
       <c r="P25" s="21" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="Q25" s="21" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="15" t="s">
-        <v>241</v>
+      <c r="A26" s="26" t="s">
+        <v>252</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>245</v>
+        <v>255</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>256</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>248</v>
+        <v>257</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>259</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
@@ -3047,39 +2848,39 @@
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
       <c r="P26" s="21" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="Q26" s="21" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="26" t="s">
-        <v>252</v>
+      <c r="A27" s="27" t="s">
+        <v>263</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>256</v>
+        <v>265</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>267</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>259</v>
+        <v>269</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>270</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
@@ -3087,2602 +2888,643 @@
       <c r="M27" s="20"/>
       <c r="N27" s="20"/>
       <c r="O27" s="20"/>
-      <c r="P27" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q27" s="21" t="s">
-        <v>262</v>
-      </c>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
     </row>
     <row r="28">
-      <c r="A28" s="27" t="s">
-        <v>263</v>
+      <c r="A28" s="4" t="s">
+        <v>272</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="B127" s="31"/>
-      <c r="C127" s="31"/>
-      <c r="D127" s="31"/>
-      <c r="E127" s="31"/>
-      <c r="F127" s="31"/>
-      <c r="G127" s="31"/>
-      <c r="H127" s="31"/>
-      <c r="I127" s="31"/>
-      <c r="J127" s="31"/>
-      <c r="K127" s="31"/>
-      <c r="L127" s="31"/>
-      <c r="M127" s="31"/>
-      <c r="N127" s="31"/>
-      <c r="O127" s="31"/>
-      <c r="P127" s="31"/>
-      <c r="Q127" s="31"/>
-      <c r="R127" s="31"/>
-      <c r="S127" s="31"/>
-      <c r="T127" s="31"/>
-      <c r="U127" s="31"/>
-      <c r="V127" s="31"/>
-      <c r="W127" s="31"/>
-      <c r="X127" s="31"/>
-      <c r="Y127" s="31"/>
-      <c r="Z127" s="31"/>
-      <c r="AA127" s="31"/>
-    </row>
-    <row r="128" ht="15.0" customHeight="1">
-      <c r="A128" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B128" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C128" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D128" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E128" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F128" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G128" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H128" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I128" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="J128" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="K128" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="L128" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="M128" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="N128" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="O128" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="P128" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q128" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="R128" s="3"/>
-      <c r="S128" s="3"/>
-      <c r="T128" s="3"/>
-      <c r="U128" s="3"/>
-      <c r="V128" s="3"/>
-      <c r="W128" s="3"/>
-      <c r="X128" s="3"/>
-      <c r="Y128" s="3"/>
-      <c r="Z128" s="3"/>
-      <c r="AA128" s="3"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B133" s="16" t="s">
+      <c r="C28" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C133" s="6" t="s">
+      <c r="D28" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="E133" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="F133" s="6" t="s">
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="G133" s="10"/>
-      <c r="H133" s="10"/>
-      <c r="I133" s="6" t="s">
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="J133" s="8"/>
-      <c r="K133" s="8"/>
-      <c r="L133" s="8"/>
-      <c r="M133" s="8"/>
-      <c r="N133" s="8"/>
-      <c r="O133" s="8"/>
-      <c r="P133" s="9" t="s">
+      <c r="Q28" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="Q133" s="9" t="s">
+    </row>
+    <row r="29">
+      <c r="A29" s="26" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="26" t="s">
+      <c r="B29" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="B136" s="16" t="s">
+      <c r="C29" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="C136" s="17" t="s">
+      <c r="D29" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="D136" s="18" t="s">
+      <c r="E29" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="E136" s="19" t="s">
+      <c r="F29" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="F136" s="19" t="s">
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="G136" s="22"/>
-      <c r="H136" s="22"/>
-      <c r="I136" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="J136" s="20"/>
-      <c r="K136" s="20"/>
-      <c r="L136" s="20"/>
-      <c r="M136" s="20"/>
-      <c r="N136" s="20"/>
-      <c r="O136" s="20"/>
-      <c r="P136" s="21" t="s">
+      <c r="Q29" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="Q136" s="21" t="s">
+    </row>
+    <row r="31">
+      <c r="A31" s="15" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="30" t="s">
+      <c r="B31" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="B156" s="31"/>
-      <c r="C156" s="31"/>
-      <c r="D156" s="31"/>
-      <c r="E156" s="31"/>
-      <c r="F156" s="31"/>
-      <c r="G156" s="31"/>
-      <c r="H156" s="31"/>
-      <c r="I156" s="31"/>
-      <c r="J156" s="31"/>
-      <c r="K156" s="31"/>
-      <c r="L156" s="31"/>
-      <c r="M156" s="31"/>
-      <c r="N156" s="31"/>
-      <c r="O156" s="31"/>
-      <c r="P156" s="31"/>
-      <c r="Q156" s="31"/>
-      <c r="R156" s="31"/>
-      <c r="S156" s="31"/>
-      <c r="T156" s="31"/>
-      <c r="U156" s="31"/>
-      <c r="V156" s="31"/>
-      <c r="W156" s="31"/>
-      <c r="X156" s="31"/>
-      <c r="Y156" s="31"/>
-      <c r="Z156" s="31"/>
-      <c r="AA156" s="31"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B157" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C157" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D157" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E157" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F157" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G157" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H157" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I157" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="J157" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="K157" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="L157" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="M157" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="N157" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="O157" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="P157" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q157" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="R157" s="3"/>
-      <c r="S157" s="3"/>
-      <c r="T157" s="3"/>
-      <c r="U157" s="3"/>
-      <c r="V157" s="3"/>
-      <c r="W157" s="3"/>
-      <c r="X157" s="3"/>
-      <c r="Y157" s="3"/>
-      <c r="Z157" s="3"/>
-      <c r="AA157" s="3"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="15" t="s">
+      <c r="C31" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="B158" s="16" t="s">
+      <c r="D31" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="C158" s="17" t="s">
+      <c r="E31" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="D158" s="18" t="s">
+      <c r="F31" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="E158" s="18" t="s">
+      <c r="G31" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="F158" s="19" t="s">
+      <c r="H31" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="G158" s="25" t="s">
+      <c r="I31" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="H158" s="18" t="s">
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="I158" s="19" t="s">
+      <c r="B32" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="J158" s="20"/>
-      <c r="K158" s="20"/>
-      <c r="L158" s="20"/>
-      <c r="M158" s="20"/>
-      <c r="N158" s="20"/>
-      <c r="O158" s="20"/>
-      <c r="P158" s="20"/>
-      <c r="Q158" s="20"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="15" t="s">
+      <c r="C32" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="B159" s="16" t="s">
+      <c r="D32" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="C159" s="17" t="s">
+      <c r="E32" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="D159" s="18" t="s">
+      <c r="F32" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="E159" s="18" t="s">
+      <c r="G32" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="F159" s="19" t="s">
+      <c r="H32" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="G159" s="25" t="s">
+      <c r="I32" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="H159" s="18" t="s">
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="I159" s="19" t="s">
+      <c r="B33" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="J159" s="20"/>
-      <c r="K159" s="20"/>
-      <c r="L159" s="20"/>
-      <c r="M159" s="20"/>
-      <c r="N159" s="20"/>
-      <c r="O159" s="20"/>
-      <c r="P159" s="20"/>
-      <c r="Q159" s="20"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="15" t="s">
+      <c r="C33" s="17" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="37" t="s">
+      <c r="D33" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="B163" s="38"/>
-      <c r="C163" s="38"/>
-      <c r="D163" s="38"/>
-      <c r="E163" s="38"/>
-      <c r="F163" s="38"/>
-      <c r="G163" s="38"/>
-      <c r="H163" s="38"/>
-      <c r="I163" s="38"/>
-      <c r="J163" s="38"/>
-      <c r="K163" s="38"/>
-      <c r="L163" s="38"/>
-      <c r="M163" s="38"/>
-      <c r="N163" s="38"/>
-      <c r="O163" s="38"/>
-      <c r="P163" s="38"/>
-      <c r="Q163" s="38"/>
-      <c r="R163" s="38"/>
-      <c r="S163" s="38"/>
-      <c r="T163" s="38"/>
-      <c r="U163" s="38"/>
-      <c r="V163" s="38"/>
-      <c r="W163" s="38"/>
-      <c r="X163" s="38"/>
-      <c r="Y163" s="38"/>
-      <c r="Z163" s="38"/>
-      <c r="AA163" s="38"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="30" t="s">
+      <c r="E33" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="B165" s="31"/>
-      <c r="C165" s="31"/>
-      <c r="D165" s="31"/>
-      <c r="E165" s="31"/>
-      <c r="F165" s="31"/>
-      <c r="G165" s="31"/>
-      <c r="H165" s="31"/>
-      <c r="I165" s="31"/>
-      <c r="J165" s="31"/>
-      <c r="K165" s="31"/>
-      <c r="L165" s="31"/>
-      <c r="M165" s="31"/>
-      <c r="N165" s="31"/>
-      <c r="O165" s="31"/>
-      <c r="P165" s="31"/>
-      <c r="Q165" s="31"/>
-      <c r="R165" s="31"/>
-      <c r="S165" s="31"/>
-      <c r="T165" s="31"/>
-      <c r="U165" s="31"/>
-      <c r="V165" s="31"/>
-      <c r="W165" s="31"/>
-      <c r="X165" s="31"/>
-      <c r="Y165" s="31"/>
-      <c r="Z165" s="31"/>
-      <c r="AA165" s="31"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B166" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C166" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D166" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E166" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F166" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G166" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H166" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I166" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="J166" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="K166" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="L166" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="M166" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="N166" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="O166" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="P166" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q166" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="R166" s="3"/>
-      <c r="S166" s="3"/>
-      <c r="T166" s="3"/>
-      <c r="U166" s="3"/>
-      <c r="V166" s="3"/>
-      <c r="W166" s="3"/>
-      <c r="X166" s="3"/>
-      <c r="Y166" s="3"/>
-      <c r="Z166" s="3"/>
-      <c r="AA166" s="3"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="39" t="s">
+      <c r="F33" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B168" s="40"/>
-      <c r="C168" s="40"/>
-      <c r="D168" s="40"/>
-      <c r="E168" s="40"/>
-      <c r="F168" s="40"/>
-      <c r="G168" s="40"/>
-      <c r="H168" s="40"/>
-      <c r="I168" s="40"/>
-      <c r="J168" s="40"/>
-      <c r="K168" s="40"/>
-      <c r="L168" s="40"/>
-      <c r="M168" s="40"/>
-      <c r="N168" s="40"/>
-      <c r="O168" s="40"/>
-      <c r="P168" s="40"/>
-      <c r="Q168" s="40"/>
-      <c r="R168" s="40"/>
-      <c r="S168" s="40"/>
-      <c r="T168" s="40"/>
-      <c r="U168" s="40"/>
-      <c r="V168" s="40"/>
-      <c r="W168" s="40"/>
-      <c r="X168" s="40"/>
-      <c r="Y168" s="40"/>
-      <c r="Z168" s="40"/>
-      <c r="AA168" s="40"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="39" t="s">
+      <c r="G33" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="B170" s="40"/>
-      <c r="C170" s="40"/>
-      <c r="D170" s="40"/>
-      <c r="E170" s="40"/>
-      <c r="F170" s="40"/>
-      <c r="G170" s="40"/>
-      <c r="H170" s="40"/>
-      <c r="I170" s="40"/>
-      <c r="J170" s="40"/>
-      <c r="K170" s="40"/>
-      <c r="L170" s="40"/>
-      <c r="M170" s="40"/>
-      <c r="N170" s="40"/>
-      <c r="O170" s="40"/>
-      <c r="P170" s="40"/>
-      <c r="Q170" s="40"/>
-      <c r="R170" s="40"/>
-      <c r="S170" s="40"/>
-      <c r="T170" s="40"/>
-      <c r="U170" s="40"/>
-      <c r="V170" s="40"/>
-      <c r="W170" s="40"/>
-      <c r="X170" s="40"/>
-      <c r="Y170" s="40"/>
-      <c r="Z170" s="40"/>
-      <c r="AA170" s="40"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="39" t="s">
+      <c r="H33" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="B172" s="40"/>
-      <c r="C172" s="40"/>
-      <c r="D172" s="40"/>
-      <c r="E172" s="40"/>
-      <c r="F172" s="40"/>
-      <c r="G172" s="40"/>
-      <c r="H172" s="40"/>
-      <c r="I172" s="40"/>
-      <c r="J172" s="40"/>
-      <c r="K172" s="40"/>
-      <c r="L172" s="40"/>
-      <c r="M172" s="40"/>
-      <c r="N172" s="40"/>
-      <c r="O172" s="40"/>
-      <c r="P172" s="40"/>
-      <c r="Q172" s="40"/>
-      <c r="R172" s="40"/>
-      <c r="S172" s="40"/>
-      <c r="T172" s="40"/>
-      <c r="U172" s="40"/>
-      <c r="V172" s="40"/>
-      <c r="W172" s="40"/>
-      <c r="X172" s="40"/>
-      <c r="Y172" s="40"/>
-      <c r="Z172" s="40"/>
-      <c r="AA172" s="40"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="39" t="s">
+      <c r="I33" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="B174" s="40"/>
-      <c r="C174" s="40"/>
-      <c r="D174" s="40"/>
-      <c r="E174" s="40"/>
-      <c r="F174" s="40"/>
-      <c r="G174" s="40"/>
-      <c r="H174" s="40"/>
-      <c r="I174" s="40"/>
-      <c r="J174" s="40"/>
-      <c r="K174" s="40"/>
-      <c r="L174" s="40"/>
-      <c r="M174" s="40"/>
-      <c r="N174" s="40"/>
-      <c r="O174" s="40"/>
-      <c r="P174" s="40"/>
-      <c r="Q174" s="40"/>
-      <c r="R174" s="40"/>
-      <c r="S174" s="40"/>
-      <c r="T174" s="40"/>
-      <c r="U174" s="40"/>
-      <c r="V174" s="40"/>
-      <c r="W174" s="40"/>
-      <c r="X174" s="40"/>
-      <c r="Y174" s="40"/>
-      <c r="Z174" s="40"/>
-      <c r="AA174" s="40"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="39" t="s">
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="B176" s="40"/>
-      <c r="C176" s="40"/>
-      <c r="D176" s="40"/>
-      <c r="E176" s="40"/>
-      <c r="F176" s="40"/>
-      <c r="G176" s="40"/>
-      <c r="H176" s="40"/>
-      <c r="I176" s="40"/>
-      <c r="J176" s="40"/>
-      <c r="K176" s="40"/>
-      <c r="L176" s="40"/>
-      <c r="M176" s="40"/>
-      <c r="N176" s="40"/>
-      <c r="O176" s="40"/>
-      <c r="P176" s="40"/>
-      <c r="Q176" s="40"/>
-      <c r="R176" s="40"/>
-      <c r="S176" s="40"/>
-      <c r="T176" s="40"/>
-      <c r="U176" s="40"/>
-      <c r="V176" s="40"/>
-      <c r="W176" s="40"/>
-      <c r="X176" s="40"/>
-      <c r="Y176" s="40"/>
-      <c r="Z176" s="40"/>
-      <c r="AA176" s="40"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="26" t="s">
+      <c r="B34" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="B177" s="16" t="s">
+      <c r="C34" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="C177" s="17" t="s">
+      <c r="D34" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="D177" s="18" t="s">
+      <c r="E34" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="E177" s="18" t="s">
+      <c r="F34" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="F177" s="19" t="s">
+      <c r="G34" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="G177" s="18" t="s">
+      <c r="H34" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="H177" s="18" t="s">
+      <c r="I34" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="I177" s="19" t="s">
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="J177" s="20"/>
-      <c r="K177" s="20"/>
-      <c r="L177" s="20"/>
-      <c r="M177" s="20"/>
-      <c r="N177" s="20"/>
-      <c r="O177" s="20"/>
-      <c r="P177" s="20"/>
-      <c r="Q177" s="20"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="15" t="s">
+      <c r="B35" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="B178" s="16" t="s">
+      <c r="C35" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="C178" s="17" t="s">
+      <c r="D35" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="D178" s="25" t="s">
+      <c r="E35" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="E178" s="18" t="s">
+      <c r="F35" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="F178" s="19" t="s">
+      <c r="G35" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="G178" s="19" t="s">
+      <c r="H35" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="H178" s="18" t="s">
+      <c r="I35" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="I178" s="19" t="s">
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="J178" s="41"/>
-      <c r="K178" s="41"/>
-      <c r="L178" s="42"/>
-      <c r="M178" s="42"/>
-      <c r="N178" s="41"/>
-      <c r="O178" s="20"/>
-      <c r="P178" s="20"/>
-      <c r="Q178" s="20"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="15" t="s">
+      <c r="B36" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="B179" s="16" t="s">
+      <c r="C36" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="C179" s="17" t="s">
+      <c r="D36" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="D179" s="18" t="s">
+      <c r="E36" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="E179" s="18" t="s">
+      <c r="F36" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="F179" s="19" t="s">
+      <c r="G36" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="G179" s="18" t="s">
+      <c r="H36" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="H179" s="18" t="s">
+      <c r="I36" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="I179" s="19" t="s">
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="J179" s="20"/>
-      <c r="K179" s="20"/>
-      <c r="L179" s="20"/>
-      <c r="M179" s="20"/>
-      <c r="N179" s="20"/>
-      <c r="O179" s="20"/>
-      <c r="P179" s="20"/>
-      <c r="Q179" s="20"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="15" t="s">
+      <c r="B37" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="B180" s="16" t="s">
+      <c r="C37" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="C180" s="17" t="s">
+      <c r="D37" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="D180" s="18" t="s">
+      <c r="E37" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="E180" s="18" t="s">
+      <c r="F37" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="F180" s="19" t="s">
+      <c r="G37" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="G180" s="25" t="s">
+      <c r="H37" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="H180" s="19" t="s">
+      <c r="I37" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="I180" s="19" t="s">
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="26" t="s">
         <v>352</v>
       </c>
-      <c r="J180" s="20"/>
-      <c r="K180" s="20"/>
-      <c r="L180" s="20"/>
-      <c r="M180" s="20"/>
-      <c r="N180" s="20"/>
-      <c r="O180" s="20"/>
-      <c r="P180" s="20"/>
-      <c r="Q180" s="20"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="39" t="s">
+      <c r="B38" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="B182" s="40"/>
-      <c r="C182" s="40"/>
-      <c r="D182" s="40"/>
-      <c r="E182" s="40"/>
-      <c r="F182" s="40"/>
-      <c r="G182" s="40"/>
-      <c r="H182" s="40"/>
-      <c r="I182" s="40"/>
-      <c r="J182" s="40"/>
-      <c r="K182" s="40"/>
-      <c r="L182" s="40"/>
-      <c r="M182" s="40"/>
-      <c r="N182" s="40"/>
-      <c r="O182" s="40"/>
-      <c r="P182" s="40"/>
-      <c r="Q182" s="40"/>
-      <c r="R182" s="40"/>
-      <c r="S182" s="40"/>
-      <c r="T182" s="40"/>
-      <c r="U182" s="40"/>
-      <c r="V182" s="40"/>
-      <c r="W182" s="40"/>
-      <c r="X182" s="40"/>
-      <c r="Y182" s="40"/>
-      <c r="Z182" s="40"/>
-      <c r="AA182" s="40"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="39" t="s">
+      <c r="C38" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="B184" s="40"/>
-      <c r="C184" s="40"/>
-      <c r="D184" s="40"/>
-      <c r="E184" s="40"/>
-      <c r="F184" s="40"/>
-      <c r="G184" s="40"/>
-      <c r="H184" s="40"/>
-      <c r="I184" s="40"/>
-      <c r="J184" s="40"/>
-      <c r="K184" s="40"/>
-      <c r="L184" s="40"/>
-      <c r="M184" s="40"/>
-      <c r="N184" s="40"/>
-      <c r="O184" s="40"/>
-      <c r="P184" s="40"/>
-      <c r="Q184" s="40"/>
-      <c r="R184" s="40"/>
-      <c r="S184" s="40"/>
-      <c r="T184" s="40"/>
-      <c r="U184" s="40"/>
-      <c r="V184" s="40"/>
-      <c r="W184" s="40"/>
-      <c r="X184" s="40"/>
-      <c r="Y184" s="40"/>
-      <c r="Z184" s="40"/>
-      <c r="AA184" s="40"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="39" t="s">
+      <c r="D38" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="B186" s="40"/>
-      <c r="C186" s="40"/>
-      <c r="D186" s="40"/>
-      <c r="E186" s="40"/>
-      <c r="F186" s="40"/>
-      <c r="G186" s="40"/>
-      <c r="H186" s="40"/>
-      <c r="I186" s="40"/>
-      <c r="J186" s="40"/>
-      <c r="K186" s="40"/>
-      <c r="L186" s="40"/>
-      <c r="M186" s="40"/>
-      <c r="N186" s="40"/>
-      <c r="O186" s="40"/>
-      <c r="P186" s="40"/>
-      <c r="Q186" s="40"/>
-      <c r="R186" s="40"/>
-      <c r="S186" s="40"/>
-      <c r="T186" s="40"/>
-      <c r="U186" s="40"/>
-      <c r="V186" s="40"/>
-      <c r="W186" s="40"/>
-      <c r="X186" s="40"/>
-      <c r="Y186" s="40"/>
-      <c r="Z186" s="40"/>
-      <c r="AA186" s="40"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="39" t="s">
+      <c r="E38" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="B188" s="40"/>
-      <c r="C188" s="40"/>
-      <c r="D188" s="40"/>
-      <c r="E188" s="40"/>
-      <c r="F188" s="40"/>
-      <c r="G188" s="40"/>
-      <c r="H188" s="40"/>
-      <c r="I188" s="40"/>
-      <c r="J188" s="40"/>
-      <c r="K188" s="40"/>
-      <c r="L188" s="40"/>
-      <c r="M188" s="40"/>
-      <c r="N188" s="40"/>
-      <c r="O188" s="40"/>
-      <c r="P188" s="40"/>
-      <c r="Q188" s="40"/>
-      <c r="R188" s="40"/>
-      <c r="S188" s="40"/>
-      <c r="T188" s="40"/>
-      <c r="U188" s="40"/>
-      <c r="V188" s="40"/>
-      <c r="W188" s="40"/>
-      <c r="X188" s="40"/>
-      <c r="Y188" s="40"/>
-      <c r="Z188" s="40"/>
-      <c r="AA188" s="40"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="15" t="s">
+      <c r="F38" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="B189" s="16" t="s">
+      <c r="G38" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="C189" s="17" t="s">
+      <c r="H38" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="D189" s="18" t="s">
+      <c r="I38" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="E189" s="18" t="s">
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="F189" s="19" t="s">
+      <c r="B39" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="G189" s="25" t="s">
+      <c r="C39" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="H189" s="18" t="s">
+      <c r="D39" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="I189" s="19" t="s">
+      <c r="E39" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="J189" s="20"/>
-      <c r="K189" s="20"/>
-      <c r="L189" s="20"/>
-      <c r="M189" s="20"/>
-      <c r="N189" s="20"/>
-      <c r="O189" s="20"/>
-      <c r="P189" s="20"/>
-      <c r="Q189" s="20"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="39" t="s">
+      <c r="F39" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="B191" s="40"/>
-      <c r="C191" s="40"/>
-      <c r="D191" s="40"/>
-      <c r="E191" s="40"/>
-      <c r="F191" s="40"/>
-      <c r="G191" s="40"/>
-      <c r="H191" s="40"/>
-      <c r="I191" s="40"/>
-      <c r="J191" s="40"/>
-      <c r="K191" s="40"/>
-      <c r="L191" s="40"/>
-      <c r="M191" s="40"/>
-      <c r="N191" s="40"/>
-      <c r="O191" s="40"/>
-      <c r="P191" s="40"/>
-      <c r="Q191" s="40"/>
-      <c r="R191" s="40"/>
-      <c r="S191" s="40"/>
-      <c r="T191" s="40"/>
-      <c r="U191" s="40"/>
-      <c r="V191" s="40"/>
-      <c r="W191" s="40"/>
-      <c r="X191" s="40"/>
-      <c r="Y191" s="40"/>
-      <c r="Z191" s="40"/>
-      <c r="AA191" s="40"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="39" t="s">
+      <c r="G39" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="B193" s="40"/>
-      <c r="C193" s="40"/>
-      <c r="D193" s="40"/>
-      <c r="E193" s="40"/>
-      <c r="F193" s="40"/>
-      <c r="G193" s="40"/>
-      <c r="H193" s="40"/>
-      <c r="I193" s="40"/>
-      <c r="J193" s="40"/>
-      <c r="K193" s="40"/>
-      <c r="L193" s="40"/>
-      <c r="M193" s="40"/>
-      <c r="N193" s="40"/>
-      <c r="O193" s="40"/>
-      <c r="P193" s="40"/>
-      <c r="Q193" s="40"/>
-      <c r="R193" s="40"/>
-      <c r="S193" s="40"/>
-      <c r="T193" s="40"/>
-      <c r="U193" s="40"/>
-      <c r="V193" s="40"/>
-      <c r="W193" s="40"/>
-      <c r="X193" s="40"/>
-      <c r="Y193" s="40"/>
-      <c r="Z193" s="40"/>
-      <c r="AA193" s="40"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="39" t="s">
+      <c r="H39" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="B195" s="40"/>
-      <c r="C195" s="40"/>
-      <c r="D195" s="40"/>
-      <c r="E195" s="40"/>
-      <c r="F195" s="40"/>
-      <c r="G195" s="40"/>
-      <c r="H195" s="40"/>
-      <c r="I195" s="40"/>
-      <c r="J195" s="40"/>
-      <c r="K195" s="40"/>
-      <c r="L195" s="40"/>
-      <c r="M195" s="40"/>
-      <c r="N195" s="40"/>
-      <c r="O195" s="40"/>
-      <c r="P195" s="40"/>
-      <c r="Q195" s="40"/>
-      <c r="R195" s="40"/>
-      <c r="S195" s="40"/>
-      <c r="T195" s="40"/>
-      <c r="U195" s="40"/>
-      <c r="V195" s="40"/>
-      <c r="W195" s="40"/>
-      <c r="X195" s="40"/>
-      <c r="Y195" s="40"/>
-      <c r="Z195" s="40"/>
-      <c r="AA195" s="40"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="39" t="s">
+      <c r="I39" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="B197" s="40"/>
-      <c r="C197" s="40"/>
-      <c r="D197" s="40"/>
-      <c r="E197" s="40"/>
-      <c r="F197" s="40"/>
-      <c r="G197" s="40"/>
-      <c r="H197" s="40"/>
-      <c r="I197" s="40"/>
-      <c r="J197" s="40"/>
-      <c r="K197" s="40"/>
-      <c r="L197" s="40"/>
-      <c r="M197" s="40"/>
-      <c r="N197" s="40"/>
-      <c r="O197" s="40"/>
-      <c r="P197" s="40"/>
-      <c r="Q197" s="40"/>
-      <c r="R197" s="40"/>
-      <c r="S197" s="40"/>
-      <c r="T197" s="40"/>
-      <c r="U197" s="40"/>
-      <c r="V197" s="40"/>
-      <c r="W197" s="40"/>
-      <c r="X197" s="40"/>
-      <c r="Y197" s="40"/>
-      <c r="Z197" s="40"/>
-      <c r="AA197" s="40"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="26" t="s">
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="B198" s="16" t="s">
+      <c r="B40" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="C198" s="17" t="s">
+      <c r="C40" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="D198" s="18" t="s">
+      <c r="D40" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="E198" s="18" t="s">
+      <c r="E40" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="F198" s="19" t="s">
+      <c r="F40" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="G198" s="25" t="s">
+      <c r="G40" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="H198" s="18" t="s">
+      <c r="H40" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="I198" s="19" t="s">
+      <c r="I40" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="J198" s="20"/>
-      <c r="K198" s="20"/>
-      <c r="L198" s="20"/>
-      <c r="M198" s="20"/>
-      <c r="N198" s="20"/>
-      <c r="O198" s="20"/>
-      <c r="P198" s="20"/>
-      <c r="Q198" s="20"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="39" t="s">
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="B200" s="40"/>
-      <c r="C200" s="40"/>
-      <c r="D200" s="40"/>
-      <c r="E200" s="40"/>
-      <c r="F200" s="40"/>
-      <c r="G200" s="40"/>
-      <c r="H200" s="40"/>
-      <c r="I200" s="40"/>
-      <c r="J200" s="40"/>
-      <c r="K200" s="40"/>
-      <c r="L200" s="40"/>
-      <c r="M200" s="40"/>
-      <c r="N200" s="40"/>
-      <c r="O200" s="40"/>
-      <c r="P200" s="40"/>
-      <c r="Q200" s="40"/>
-      <c r="R200" s="40"/>
-      <c r="S200" s="40"/>
-      <c r="T200" s="40"/>
-      <c r="U200" s="40"/>
-      <c r="V200" s="40"/>
-      <c r="W200" s="40"/>
-      <c r="X200" s="40"/>
-      <c r="Y200" s="40"/>
-      <c r="Z200" s="40"/>
-      <c r="AA200" s="40"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="39" t="s">
+    </row>
+    <row r="42">
+      <c r="A42" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="B202" s="40"/>
-      <c r="C202" s="40"/>
-      <c r="D202" s="40"/>
-      <c r="E202" s="40"/>
-      <c r="F202" s="40"/>
-      <c r="G202" s="40"/>
-      <c r="H202" s="40"/>
-      <c r="I202" s="40"/>
-      <c r="J202" s="40"/>
-      <c r="K202" s="40"/>
-      <c r="L202" s="40"/>
-      <c r="M202" s="40"/>
-      <c r="N202" s="40"/>
-      <c r="O202" s="40"/>
-      <c r="P202" s="40"/>
-      <c r="Q202" s="40"/>
-      <c r="R202" s="40"/>
-      <c r="S202" s="40"/>
-      <c r="T202" s="40"/>
-      <c r="U202" s="40"/>
-      <c r="V202" s="40"/>
-      <c r="W202" s="40"/>
-      <c r="X202" s="40"/>
-      <c r="Y202" s="40"/>
-      <c r="Z202" s="40"/>
-      <c r="AA202" s="40"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="39" t="s">
+      <c r="B42" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="B204" s="40"/>
-      <c r="C204" s="40"/>
-      <c r="D204" s="40"/>
-      <c r="E204" s="40"/>
-      <c r="F204" s="40"/>
-      <c r="G204" s="40"/>
-      <c r="H204" s="40"/>
-      <c r="I204" s="40"/>
-      <c r="J204" s="40"/>
-      <c r="K204" s="40"/>
-      <c r="L204" s="40"/>
-      <c r="M204" s="40"/>
-      <c r="N204" s="40"/>
-      <c r="O204" s="40"/>
-      <c r="P204" s="40"/>
-      <c r="Q204" s="40"/>
-      <c r="R204" s="40"/>
-      <c r="S204" s="40"/>
-      <c r="T204" s="40"/>
-      <c r="U204" s="40"/>
-      <c r="V204" s="40"/>
-      <c r="W204" s="40"/>
-      <c r="X204" s="40"/>
-      <c r="Y204" s="40"/>
-      <c r="Z204" s="40"/>
-      <c r="AA204" s="40"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="39" t="s">
+      <c r="C42" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="B206" s="40"/>
-      <c r="C206" s="40"/>
-      <c r="D206" s="40"/>
-      <c r="E206" s="40"/>
-      <c r="F206" s="40"/>
-      <c r="G206" s="40"/>
-      <c r="H206" s="40"/>
-      <c r="I206" s="40"/>
-      <c r="J206" s="40"/>
-      <c r="K206" s="40"/>
-      <c r="L206" s="40"/>
-      <c r="M206" s="40"/>
-      <c r="N206" s="40"/>
-      <c r="O206" s="40"/>
-      <c r="P206" s="40"/>
-      <c r="Q206" s="40"/>
-      <c r="R206" s="40"/>
-      <c r="S206" s="40"/>
-      <c r="T206" s="40"/>
-      <c r="U206" s="40"/>
-      <c r="V206" s="40"/>
-      <c r="W206" s="40"/>
-      <c r="X206" s="40"/>
-      <c r="Y206" s="40"/>
-      <c r="Z206" s="40"/>
-      <c r="AA206" s="40"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="39" t="s">
+      <c r="D42" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="B208" s="40"/>
-      <c r="C208" s="40"/>
-      <c r="D208" s="40"/>
-      <c r="E208" s="40"/>
-      <c r="F208" s="40"/>
-      <c r="G208" s="40"/>
-      <c r="H208" s="40"/>
-      <c r="I208" s="40"/>
-      <c r="J208" s="40"/>
-      <c r="K208" s="40"/>
-      <c r="L208" s="40"/>
-      <c r="M208" s="40"/>
-      <c r="N208" s="40"/>
-      <c r="O208" s="40"/>
-      <c r="P208" s="40"/>
-      <c r="Q208" s="40"/>
-      <c r="R208" s="40"/>
-      <c r="S208" s="40"/>
-      <c r="T208" s="40"/>
-      <c r="U208" s="40"/>
-      <c r="V208" s="40"/>
-      <c r="W208" s="40"/>
-      <c r="X208" s="40"/>
-      <c r="Y208" s="40"/>
-      <c r="Z208" s="40"/>
-      <c r="AA208" s="40"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="39" t="s">
+      <c r="E42" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="B210" s="40"/>
-      <c r="C210" s="40"/>
-      <c r="D210" s="40"/>
-      <c r="E210" s="40"/>
-      <c r="F210" s="40"/>
-      <c r="G210" s="40"/>
-      <c r="H210" s="40"/>
-      <c r="I210" s="40"/>
-      <c r="J210" s="40"/>
-      <c r="K210" s="40"/>
-      <c r="L210" s="40"/>
-      <c r="M210" s="40"/>
-      <c r="N210" s="40"/>
-      <c r="O210" s="40"/>
-      <c r="P210" s="40"/>
-      <c r="Q210" s="40"/>
-      <c r="R210" s="40"/>
-      <c r="S210" s="40"/>
-      <c r="T210" s="40"/>
-      <c r="U210" s="40"/>
-      <c r="V210" s="40"/>
-      <c r="W210" s="40"/>
-      <c r="X210" s="40"/>
-      <c r="Y210" s="40"/>
-      <c r="Z210" s="40"/>
-      <c r="AA210" s="40"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="39" t="s">
+      <c r="F42" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="B212" s="40"/>
-      <c r="C212" s="40"/>
-      <c r="D212" s="40"/>
-      <c r="E212" s="40"/>
-      <c r="F212" s="40"/>
-      <c r="G212" s="40"/>
-      <c r="H212" s="40"/>
-      <c r="I212" s="40"/>
-      <c r="J212" s="40"/>
-      <c r="K212" s="40"/>
-      <c r="L212" s="40"/>
-      <c r="M212" s="40"/>
-      <c r="N212" s="40"/>
-      <c r="O212" s="40"/>
-      <c r="P212" s="40"/>
-      <c r="Q212" s="40"/>
-      <c r="R212" s="40"/>
-      <c r="S212" s="40"/>
-      <c r="T212" s="40"/>
-      <c r="U212" s="40"/>
-      <c r="V212" s="40"/>
-      <c r="W212" s="40"/>
-      <c r="X212" s="40"/>
-      <c r="Y212" s="40"/>
-      <c r="Z212" s="40"/>
-      <c r="AA212" s="40"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="26" t="s">
+      <c r="G42" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="B213" s="16" t="s">
+      <c r="H42" s="22"/>
+      <c r="I42" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="C213" s="17" t="s">
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="27" t="s">
         <v>388</v>
       </c>
-      <c r="D213" s="18" t="s">
+    </row>
+    <row r="44">
+      <c r="A44" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="E213" s="18" t="s">
+      <c r="B44" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="F213" s="19" t="s">
+      <c r="C44" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="G213" s="43" t="s">
+      <c r="D44" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="H213" s="18" t="s">
+      <c r="E44" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="I213" s="19" t="s">
+      <c r="F44" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="J213" s="20"/>
-      <c r="K213" s="20"/>
-      <c r="L213" s="20"/>
-      <c r="M213" s="20"/>
-      <c r="N213" s="20"/>
-      <c r="O213" s="20"/>
-      <c r="P213" s="20"/>
-      <c r="Q213" s="20"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="39" t="s">
+      <c r="G44" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="B215" s="40"/>
-      <c r="C215" s="40"/>
-      <c r="D215" s="40"/>
-      <c r="E215" s="40"/>
-      <c r="F215" s="40"/>
-      <c r="G215" s="40"/>
-      <c r="H215" s="40"/>
-      <c r="I215" s="40"/>
-      <c r="J215" s="40"/>
-      <c r="K215" s="40"/>
-      <c r="L215" s="40"/>
-      <c r="M215" s="40"/>
-      <c r="N215" s="40"/>
-      <c r="O215" s="40"/>
-      <c r="P215" s="40"/>
-      <c r="Q215" s="40"/>
-      <c r="R215" s="40"/>
-      <c r="S215" s="40"/>
-      <c r="T215" s="40"/>
-      <c r="U215" s="40"/>
-      <c r="V215" s="40"/>
-      <c r="W215" s="40"/>
-      <c r="X215" s="40"/>
-      <c r="Y215" s="40"/>
-      <c r="Z215" s="40"/>
-      <c r="AA215" s="40"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="39" t="s">
+      <c r="H44" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="B217" s="40"/>
-      <c r="C217" s="40"/>
-      <c r="D217" s="40"/>
-      <c r="E217" s="40"/>
-      <c r="F217" s="40"/>
-      <c r="G217" s="40"/>
-      <c r="H217" s="40"/>
-      <c r="I217" s="40"/>
-      <c r="J217" s="40"/>
-      <c r="K217" s="40"/>
-      <c r="L217" s="40"/>
-      <c r="M217" s="40"/>
-      <c r="N217" s="40"/>
-      <c r="O217" s="40"/>
-      <c r="P217" s="40"/>
-      <c r="Q217" s="40"/>
-      <c r="R217" s="40"/>
-      <c r="S217" s="40"/>
-      <c r="T217" s="40"/>
-      <c r="U217" s="40"/>
-      <c r="V217" s="40"/>
-      <c r="W217" s="40"/>
-      <c r="X217" s="40"/>
-      <c r="Y217" s="40"/>
-      <c r="Z217" s="40"/>
-      <c r="AA217" s="40"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="39" t="s">
+      <c r="I44" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="B219" s="40"/>
-      <c r="C219" s="40"/>
-      <c r="D219" s="40"/>
-      <c r="E219" s="40"/>
-      <c r="F219" s="40"/>
-      <c r="G219" s="40"/>
-      <c r="H219" s="40"/>
-      <c r="I219" s="40"/>
-      <c r="J219" s="40"/>
-      <c r="K219" s="40"/>
-      <c r="L219" s="40"/>
-      <c r="M219" s="40"/>
-      <c r="N219" s="40"/>
-      <c r="O219" s="40"/>
-      <c r="P219" s="40"/>
-      <c r="Q219" s="40"/>
-      <c r="R219" s="40"/>
-      <c r="S219" s="40"/>
-      <c r="T219" s="40"/>
-      <c r="U219" s="40"/>
-      <c r="V219" s="40"/>
-      <c r="W219" s="40"/>
-      <c r="X219" s="40"/>
-      <c r="Y219" s="40"/>
-      <c r="Z219" s="40"/>
-      <c r="AA219" s="40"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="39" t="s">
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="B221" s="40"/>
-      <c r="C221" s="40"/>
-      <c r="D221" s="40"/>
-      <c r="E221" s="40"/>
-      <c r="F221" s="40"/>
-      <c r="G221" s="40"/>
-      <c r="H221" s="40"/>
-      <c r="I221" s="40"/>
-      <c r="J221" s="40"/>
-      <c r="K221" s="40"/>
-      <c r="L221" s="40"/>
-      <c r="M221" s="40"/>
-      <c r="N221" s="40"/>
-      <c r="O221" s="40"/>
-      <c r="P221" s="40"/>
-      <c r="Q221" s="40"/>
-      <c r="R221" s="40"/>
-      <c r="S221" s="40"/>
-      <c r="T221" s="40"/>
-      <c r="U221" s="40"/>
-      <c r="V221" s="40"/>
-      <c r="W221" s="40"/>
-      <c r="X221" s="40"/>
-      <c r="Y221" s="40"/>
-      <c r="Z221" s="40"/>
-      <c r="AA221" s="40"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="39" t="s">
+      <c r="B45" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="B223" s="40"/>
-      <c r="C223" s="40"/>
-      <c r="D223" s="40"/>
-      <c r="E223" s="40"/>
-      <c r="F223" s="40"/>
-      <c r="G223" s="40"/>
-      <c r="H223" s="40"/>
-      <c r="I223" s="40"/>
-      <c r="J223" s="40"/>
-      <c r="K223" s="40"/>
-      <c r="L223" s="40"/>
-      <c r="M223" s="40"/>
-      <c r="N223" s="40"/>
-      <c r="O223" s="40"/>
-      <c r="P223" s="40"/>
-      <c r="Q223" s="40"/>
-      <c r="R223" s="40"/>
-      <c r="S223" s="40"/>
-      <c r="T223" s="40"/>
-      <c r="U223" s="40"/>
-      <c r="V223" s="40"/>
-      <c r="W223" s="40"/>
-      <c r="X223" s="40"/>
-      <c r="Y223" s="40"/>
-      <c r="Z223" s="40"/>
-      <c r="AA223" s="40"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="39" t="s">
+      <c r="C45" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="B225" s="40"/>
-      <c r="C225" s="40"/>
-      <c r="D225" s="40"/>
-      <c r="E225" s="40"/>
-      <c r="F225" s="40"/>
-      <c r="G225" s="40"/>
-      <c r="H225" s="40"/>
-      <c r="I225" s="40"/>
-      <c r="J225" s="40"/>
-      <c r="K225" s="40"/>
-      <c r="L225" s="40"/>
-      <c r="M225" s="40"/>
-      <c r="N225" s="40"/>
-      <c r="O225" s="40"/>
-      <c r="P225" s="40"/>
-      <c r="Q225" s="40"/>
-      <c r="R225" s="40"/>
-      <c r="S225" s="40"/>
-      <c r="T225" s="40"/>
-      <c r="U225" s="40"/>
-      <c r="V225" s="40"/>
-      <c r="W225" s="40"/>
-      <c r="X225" s="40"/>
-      <c r="Y225" s="40"/>
-      <c r="Z225" s="40"/>
-      <c r="AA225" s="40"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="39" t="s">
+      <c r="D45" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="B227" s="40"/>
-      <c r="C227" s="40"/>
-      <c r="D227" s="40"/>
-      <c r="E227" s="40"/>
-      <c r="F227" s="40"/>
-      <c r="G227" s="40"/>
-      <c r="H227" s="40"/>
-      <c r="I227" s="40"/>
-      <c r="J227" s="40"/>
-      <c r="K227" s="40"/>
-      <c r="L227" s="40"/>
-      <c r="M227" s="40"/>
-      <c r="N227" s="40"/>
-      <c r="O227" s="40"/>
-      <c r="P227" s="40"/>
-      <c r="Q227" s="40"/>
-      <c r="R227" s="40"/>
-      <c r="S227" s="40"/>
-      <c r="T227" s="40"/>
-      <c r="U227" s="40"/>
-      <c r="V227" s="40"/>
-      <c r="W227" s="40"/>
-      <c r="X227" s="40"/>
-      <c r="Y227" s="40"/>
-      <c r="Z227" s="40"/>
-      <c r="AA227" s="40"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="39" t="s">
+      <c r="E45" s="18" t="s">
         <v>402</v>
       </c>
-      <c r="B229" s="40"/>
-      <c r="C229" s="40"/>
-      <c r="D229" s="40"/>
-      <c r="E229" s="40"/>
-      <c r="F229" s="40"/>
-      <c r="G229" s="40"/>
-      <c r="H229" s="40"/>
-      <c r="I229" s="40"/>
-      <c r="J229" s="40"/>
-      <c r="K229" s="40"/>
-      <c r="L229" s="40"/>
-      <c r="M229" s="40"/>
-      <c r="N229" s="40"/>
-      <c r="O229" s="40"/>
-      <c r="P229" s="40"/>
-      <c r="Q229" s="40"/>
-      <c r="R229" s="40"/>
-      <c r="S229" s="40"/>
-      <c r="T229" s="40"/>
-      <c r="U229" s="40"/>
-      <c r="V229" s="40"/>
-      <c r="W229" s="40"/>
-      <c r="X229" s="40"/>
-      <c r="Y229" s="40"/>
-      <c r="Z229" s="40"/>
-      <c r="AA229" s="40"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="39" t="s">
+      <c r="F45" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="B231" s="40"/>
-      <c r="C231" s="40"/>
-      <c r="D231" s="40"/>
-      <c r="E231" s="40"/>
-      <c r="F231" s="40"/>
-      <c r="G231" s="40"/>
-      <c r="H231" s="40"/>
-      <c r="I231" s="40"/>
-      <c r="J231" s="40"/>
-      <c r="K231" s="40"/>
-      <c r="L231" s="40"/>
-      <c r="M231" s="40"/>
-      <c r="N231" s="40"/>
-      <c r="O231" s="40"/>
-      <c r="P231" s="40"/>
-      <c r="Q231" s="40"/>
-      <c r="R231" s="40"/>
-      <c r="S231" s="40"/>
-      <c r="T231" s="40"/>
-      <c r="U231" s="40"/>
-      <c r="V231" s="40"/>
-      <c r="W231" s="40"/>
-      <c r="X231" s="40"/>
-      <c r="Y231" s="40"/>
-      <c r="Z231" s="40"/>
-      <c r="AA231" s="40"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="39" t="s">
+      <c r="G45" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="B233" s="40"/>
-      <c r="C233" s="40"/>
-      <c r="D233" s="40"/>
-      <c r="E233" s="40"/>
-      <c r="F233" s="40"/>
-      <c r="G233" s="40"/>
-      <c r="H233" s="40"/>
-      <c r="I233" s="40"/>
-      <c r="J233" s="40"/>
-      <c r="K233" s="40"/>
-      <c r="L233" s="40"/>
-      <c r="M233" s="40"/>
-      <c r="N233" s="40"/>
-      <c r="O233" s="40"/>
-      <c r="P233" s="40"/>
-      <c r="Q233" s="40"/>
-      <c r="R233" s="40"/>
-      <c r="S233" s="40"/>
-      <c r="T233" s="40"/>
-      <c r="U233" s="40"/>
-      <c r="V233" s="40"/>
-      <c r="W233" s="40"/>
-      <c r="X233" s="40"/>
-      <c r="Y233" s="40"/>
-      <c r="Z233" s="40"/>
-      <c r="AA233" s="40"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="44"/>
-      <c r="B234" s="44"/>
-      <c r="C234" s="45"/>
-      <c r="D234" s="45"/>
-      <c r="E234" s="45"/>
-      <c r="F234" s="45"/>
-      <c r="G234" s="45"/>
-      <c r="H234" s="45"/>
-      <c r="I234" s="45"/>
-      <c r="J234" s="45"/>
-      <c r="K234" s="45"/>
-      <c r="L234" s="45"/>
-      <c r="M234" s="45"/>
-      <c r="N234" s="45"/>
-      <c r="O234" s="45"/>
-      <c r="P234" s="45"/>
-      <c r="Q234" s="45"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="39" t="s">
+      <c r="H45" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="B235" s="40"/>
-      <c r="C235" s="40"/>
-      <c r="D235" s="40"/>
-      <c r="E235" s="40"/>
-      <c r="F235" s="40"/>
-      <c r="G235" s="40"/>
-      <c r="H235" s="40"/>
-      <c r="I235" s="40"/>
-      <c r="J235" s="40"/>
-      <c r="K235" s="40"/>
-      <c r="L235" s="40"/>
-      <c r="M235" s="40"/>
-      <c r="N235" s="40"/>
-      <c r="O235" s="40"/>
-      <c r="P235" s="40"/>
-      <c r="Q235" s="40"/>
-      <c r="R235" s="40"/>
-      <c r="S235" s="40"/>
-      <c r="T235" s="40"/>
-      <c r="U235" s="40"/>
-      <c r="V235" s="40"/>
-      <c r="W235" s="40"/>
-      <c r="X235" s="40"/>
-      <c r="Y235" s="40"/>
-      <c r="Z235" s="40"/>
-      <c r="AA235" s="40"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="39" t="s">
+      <c r="I45" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="B237" s="40"/>
-      <c r="C237" s="40"/>
-      <c r="D237" s="40"/>
-      <c r="E237" s="40"/>
-      <c r="F237" s="40"/>
-      <c r="G237" s="40"/>
-      <c r="H237" s="40"/>
-      <c r="I237" s="40"/>
-      <c r="J237" s="40"/>
-      <c r="K237" s="40"/>
-      <c r="L237" s="40"/>
-      <c r="M237" s="40"/>
-      <c r="N237" s="40"/>
-      <c r="O237" s="40"/>
-      <c r="P237" s="40"/>
-      <c r="Q237" s="40"/>
-      <c r="R237" s="40"/>
-      <c r="S237" s="40"/>
-      <c r="T237" s="40"/>
-      <c r="U237" s="40"/>
-      <c r="V237" s="40"/>
-      <c r="W237" s="40"/>
-      <c r="X237" s="40"/>
-      <c r="Y237" s="40"/>
-      <c r="Z237" s="40"/>
-      <c r="AA237" s="40"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="39" t="s">
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="B239" s="40"/>
-      <c r="C239" s="40"/>
-      <c r="D239" s="40"/>
-      <c r="E239" s="40"/>
-      <c r="F239" s="40"/>
-      <c r="G239" s="40"/>
-      <c r="H239" s="40"/>
-      <c r="I239" s="40"/>
-      <c r="J239" s="40"/>
-      <c r="K239" s="40"/>
-      <c r="L239" s="40"/>
-      <c r="M239" s="40"/>
-      <c r="N239" s="40"/>
-      <c r="O239" s="40"/>
-      <c r="P239" s="40"/>
-      <c r="Q239" s="40"/>
-      <c r="R239" s="40"/>
-      <c r="S239" s="40"/>
-      <c r="T239" s="40"/>
-      <c r="U239" s="40"/>
-      <c r="V239" s="40"/>
-      <c r="W239" s="40"/>
-      <c r="X239" s="40"/>
-      <c r="Y239" s="40"/>
-      <c r="Z239" s="40"/>
-      <c r="AA239" s="40"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="15" t="s">
+      <c r="B46" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="B240" s="16" t="s">
+      <c r="C46" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="C240" s="17" t="s">
+      <c r="D46" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="D240" s="18" t="s">
+      <c r="E46" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="E240" s="18" t="s">
+      <c r="F46" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="F240" s="19" t="s">
+      <c r="G46" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="G240" s="18" t="s">
+      <c r="H46" s="22"/>
+      <c r="I46" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="H240" s="18" t="s">
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="I240" s="19" t="s">
+      <c r="B47" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="J240" s="20"/>
-      <c r="K240" s="20"/>
-      <c r="L240" s="20"/>
-      <c r="M240" s="20"/>
-      <c r="N240" s="20"/>
-      <c r="O240" s="20"/>
-      <c r="P240" s="20"/>
-      <c r="Q240" s="20"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="39" t="s">
+      <c r="C47" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="B242" s="40"/>
-      <c r="C242" s="40"/>
-      <c r="D242" s="40"/>
-      <c r="E242" s="40"/>
-      <c r="F242" s="40"/>
-      <c r="G242" s="40"/>
-      <c r="H242" s="40"/>
-      <c r="I242" s="40"/>
-      <c r="J242" s="40"/>
-      <c r="K242" s="40"/>
-      <c r="L242" s="40"/>
-      <c r="M242" s="40"/>
-      <c r="N242" s="40"/>
-      <c r="O242" s="40"/>
-      <c r="P242" s="40"/>
-      <c r="Q242" s="40"/>
-      <c r="R242" s="40"/>
-      <c r="S242" s="40"/>
-      <c r="T242" s="40"/>
-      <c r="U242" s="40"/>
-      <c r="V242" s="40"/>
-      <c r="W242" s="40"/>
-      <c r="X242" s="40"/>
-      <c r="Y242" s="40"/>
-      <c r="Z242" s="40"/>
-      <c r="AA242" s="40"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="39" t="s">
+      <c r="D47" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="B244" s="40"/>
-      <c r="C244" s="40"/>
-      <c r="D244" s="40"/>
-      <c r="E244" s="40"/>
-      <c r="F244" s="40"/>
-      <c r="G244" s="40"/>
-      <c r="H244" s="40"/>
-      <c r="I244" s="40"/>
-      <c r="J244" s="40"/>
-      <c r="K244" s="40"/>
-      <c r="L244" s="40"/>
-      <c r="M244" s="40"/>
-      <c r="N244" s="40"/>
-      <c r="O244" s="40"/>
-      <c r="P244" s="40"/>
-      <c r="Q244" s="40"/>
-      <c r="R244" s="40"/>
-      <c r="S244" s="40"/>
-      <c r="T244" s="40"/>
-      <c r="U244" s="40"/>
-      <c r="V244" s="40"/>
-      <c r="W244" s="40"/>
-      <c r="X244" s="40"/>
-      <c r="Y244" s="40"/>
-      <c r="Z244" s="40"/>
-      <c r="AA244" s="40"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="39" t="s">
+      <c r="E47" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="B246" s="40"/>
-      <c r="C246" s="40"/>
-      <c r="D246" s="40"/>
-      <c r="E246" s="40"/>
-      <c r="F246" s="40"/>
-      <c r="G246" s="40"/>
-      <c r="H246" s="40"/>
-      <c r="I246" s="40"/>
-      <c r="J246" s="40"/>
-      <c r="K246" s="40"/>
-      <c r="L246" s="40"/>
-      <c r="M246" s="40"/>
-      <c r="N246" s="40"/>
-      <c r="O246" s="40"/>
-      <c r="P246" s="40"/>
-      <c r="Q246" s="40"/>
-      <c r="R246" s="40"/>
-      <c r="S246" s="40"/>
-      <c r="T246" s="40"/>
-      <c r="U246" s="40"/>
-      <c r="V246" s="40"/>
-      <c r="W246" s="40"/>
-      <c r="X246" s="40"/>
-      <c r="Y246" s="40"/>
-      <c r="Z246" s="40"/>
-      <c r="AA246" s="40"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="39" t="s">
+      <c r="F47" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="B248" s="40"/>
-      <c r="C248" s="40"/>
-      <c r="D248" s="40"/>
-      <c r="E248" s="40"/>
-      <c r="F248" s="40"/>
-      <c r="G248" s="40"/>
-      <c r="H248" s="40"/>
-      <c r="I248" s="40"/>
-      <c r="J248" s="40"/>
-      <c r="K248" s="40"/>
-      <c r="L248" s="40"/>
-      <c r="M248" s="40"/>
-      <c r="N248" s="40"/>
-      <c r="O248" s="40"/>
-      <c r="P248" s="40"/>
-      <c r="Q248" s="40"/>
-      <c r="R248" s="40"/>
-      <c r="S248" s="40"/>
-      <c r="T248" s="40"/>
-      <c r="U248" s="40"/>
-      <c r="V248" s="40"/>
-      <c r="W248" s="40"/>
-      <c r="X248" s="40"/>
-      <c r="Y248" s="40"/>
-      <c r="Z248" s="40"/>
-      <c r="AA248" s="40"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="26" t="s">
+      <c r="G47" s="25" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="39" t="s">
+      <c r="H47" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="B250" s="40"/>
-      <c r="C250" s="40"/>
-      <c r="D250" s="40"/>
-      <c r="E250" s="40"/>
-      <c r="F250" s="40"/>
-      <c r="G250" s="40"/>
-      <c r="H250" s="40"/>
-      <c r="I250" s="40"/>
-      <c r="J250" s="40"/>
-      <c r="K250" s="40"/>
-      <c r="L250" s="40"/>
-      <c r="M250" s="40"/>
-      <c r="N250" s="40"/>
-      <c r="O250" s="40"/>
-      <c r="P250" s="40"/>
-      <c r="Q250" s="40"/>
-      <c r="R250" s="40"/>
-      <c r="S250" s="40"/>
-      <c r="T250" s="40"/>
-      <c r="U250" s="40"/>
-      <c r="V250" s="40"/>
-      <c r="W250" s="40"/>
-      <c r="X250" s="40"/>
-      <c r="Y250" s="40"/>
-      <c r="Z250" s="40"/>
-      <c r="AA250" s="40"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="26" t="s">
+      <c r="I47" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="B251" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="C251" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="D251" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="E251" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="F251" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="G251" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="H251" s="22"/>
-      <c r="I251" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="J251" s="20"/>
-      <c r="K251" s="20"/>
-      <c r="L251" s="20"/>
-      <c r="M251" s="20"/>
-      <c r="N251" s="20"/>
-      <c r="O251" s="20"/>
-      <c r="P251" s="20"/>
-      <c r="Q251" s="20"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="39" t="s">
-        <v>431</v>
-      </c>
-      <c r="B253" s="40"/>
-      <c r="C253" s="40"/>
-      <c r="D253" s="40"/>
-      <c r="E253" s="40"/>
-      <c r="F253" s="40"/>
-      <c r="G253" s="40"/>
-      <c r="H253" s="40"/>
-      <c r="I253" s="40"/>
-      <c r="J253" s="40"/>
-      <c r="K253" s="40"/>
-      <c r="L253" s="40"/>
-      <c r="M253" s="40"/>
-      <c r="N253" s="40"/>
-      <c r="O253" s="40"/>
-      <c r="P253" s="40"/>
-      <c r="Q253" s="40"/>
-      <c r="R253" s="40"/>
-      <c r="S253" s="40"/>
-      <c r="T253" s="40"/>
-      <c r="U253" s="40"/>
-      <c r="V253" s="40"/>
-      <c r="W253" s="40"/>
-      <c r="X253" s="40"/>
-      <c r="Y253" s="40"/>
-      <c r="Z253" s="40"/>
-      <c r="AA253" s="40"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="39" t="s">
-        <v>432</v>
-      </c>
-      <c r="B255" s="40"/>
-      <c r="C255" s="40"/>
-      <c r="D255" s="40"/>
-      <c r="E255" s="40"/>
-      <c r="F255" s="40"/>
-      <c r="G255" s="40"/>
-      <c r="H255" s="40"/>
-      <c r="I255" s="40"/>
-      <c r="J255" s="40"/>
-      <c r="K255" s="40"/>
-      <c r="L255" s="40"/>
-      <c r="M255" s="40"/>
-      <c r="N255" s="40"/>
-      <c r="O255" s="40"/>
-      <c r="P255" s="40"/>
-      <c r="Q255" s="40"/>
-      <c r="R255" s="40"/>
-      <c r="S255" s="40"/>
-      <c r="T255" s="40"/>
-      <c r="U255" s="40"/>
-      <c r="V255" s="40"/>
-      <c r="W255" s="40"/>
-      <c r="X255" s="40"/>
-      <c r="Y255" s="40"/>
-      <c r="Z255" s="40"/>
-      <c r="AA255" s="40"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="39" t="s">
-        <v>433</v>
-      </c>
-      <c r="B257" s="40"/>
-      <c r="C257" s="40"/>
-      <c r="D257" s="40"/>
-      <c r="E257" s="40"/>
-      <c r="F257" s="40"/>
-      <c r="G257" s="40"/>
-      <c r="H257" s="40"/>
-      <c r="I257" s="40"/>
-      <c r="J257" s="40"/>
-      <c r="K257" s="40"/>
-      <c r="L257" s="40"/>
-      <c r="M257" s="40"/>
-      <c r="N257" s="40"/>
-      <c r="O257" s="40"/>
-      <c r="P257" s="40"/>
-      <c r="Q257" s="40"/>
-      <c r="R257" s="40"/>
-      <c r="S257" s="40"/>
-      <c r="T257" s="40"/>
-      <c r="U257" s="40"/>
-      <c r="V257" s="40"/>
-      <c r="W257" s="40"/>
-      <c r="X257" s="40"/>
-      <c r="Y257" s="40"/>
-      <c r="Z257" s="40"/>
-      <c r="AA257" s="40"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="39" t="s">
-        <v>434</v>
-      </c>
-      <c r="B259" s="40"/>
-      <c r="C259" s="40"/>
-      <c r="D259" s="40"/>
-      <c r="E259" s="40"/>
-      <c r="F259" s="40"/>
-      <c r="G259" s="40"/>
-      <c r="H259" s="40"/>
-      <c r="I259" s="40"/>
-      <c r="J259" s="40"/>
-      <c r="K259" s="40"/>
-      <c r="L259" s="40"/>
-      <c r="M259" s="40"/>
-      <c r="N259" s="40"/>
-      <c r="O259" s="40"/>
-      <c r="P259" s="40"/>
-      <c r="Q259" s="40"/>
-      <c r="R259" s="40"/>
-      <c r="S259" s="40"/>
-      <c r="T259" s="40"/>
-      <c r="U259" s="40"/>
-      <c r="V259" s="40"/>
-      <c r="W259" s="40"/>
-      <c r="X259" s="40"/>
-      <c r="Y259" s="40"/>
-      <c r="Z259" s="40"/>
-      <c r="AA259" s="40"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="39" t="s">
-        <v>435</v>
-      </c>
-      <c r="B261" s="40"/>
-      <c r="C261" s="40"/>
-      <c r="D261" s="40"/>
-      <c r="E261" s="40"/>
-      <c r="F261" s="40"/>
-      <c r="G261" s="40"/>
-      <c r="H261" s="40"/>
-      <c r="I261" s="40"/>
-      <c r="J261" s="40"/>
-      <c r="K261" s="40"/>
-      <c r="L261" s="40"/>
-      <c r="M261" s="40"/>
-      <c r="N261" s="40"/>
-      <c r="O261" s="40"/>
-      <c r="P261" s="40"/>
-      <c r="Q261" s="40"/>
-      <c r="R261" s="40"/>
-      <c r="S261" s="40"/>
-      <c r="T261" s="40"/>
-      <c r="U261" s="40"/>
-      <c r="V261" s="40"/>
-      <c r="W261" s="40"/>
-      <c r="X261" s="40"/>
-      <c r="Y261" s="40"/>
-      <c r="Z261" s="40"/>
-      <c r="AA261" s="40"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="27" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="B264" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="C264" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="D264" s="18" t="s">
-        <v>440</v>
-      </c>
-      <c r="E264" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="F264" s="19" t="s">
-        <v>442</v>
-      </c>
-      <c r="G264" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="H264" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="I264" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="J264" s="20"/>
-      <c r="K264" s="20"/>
-      <c r="L264" s="20"/>
-      <c r="M264" s="20"/>
-      <c r="N264" s="20"/>
-      <c r="O264" s="20"/>
-      <c r="P264" s="20"/>
-      <c r="Q264" s="20"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="39" t="s">
-        <v>446</v>
-      </c>
-      <c r="B266" s="40"/>
-      <c r="C266" s="40"/>
-      <c r="D266" s="40"/>
-      <c r="E266" s="40"/>
-      <c r="F266" s="40"/>
-      <c r="G266" s="40"/>
-      <c r="H266" s="40"/>
-      <c r="I266" s="40"/>
-      <c r="J266" s="40"/>
-      <c r="K266" s="40"/>
-      <c r="L266" s="40"/>
-      <c r="M266" s="40"/>
-      <c r="N266" s="40"/>
-      <c r="O266" s="40"/>
-      <c r="P266" s="40"/>
-      <c r="Q266" s="40"/>
-      <c r="R266" s="40"/>
-      <c r="S266" s="40"/>
-      <c r="T266" s="40"/>
-      <c r="U266" s="40"/>
-      <c r="V266" s="40"/>
-      <c r="W266" s="40"/>
-      <c r="X266" s="40"/>
-      <c r="Y266" s="40"/>
-      <c r="Z266" s="40"/>
-      <c r="AA266" s="40"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="39" t="s">
-        <v>447</v>
-      </c>
-      <c r="B268" s="40"/>
-      <c r="C268" s="40"/>
-      <c r="D268" s="40"/>
-      <c r="E268" s="40"/>
-      <c r="F268" s="40"/>
-      <c r="G268" s="40"/>
-      <c r="H268" s="40"/>
-      <c r="I268" s="40"/>
-      <c r="J268" s="40"/>
-      <c r="K268" s="40"/>
-      <c r="L268" s="40"/>
-      <c r="M268" s="40"/>
-      <c r="N268" s="40"/>
-      <c r="O268" s="40"/>
-      <c r="P268" s="40"/>
-      <c r="Q268" s="40"/>
-      <c r="R268" s="40"/>
-      <c r="S268" s="40"/>
-      <c r="T268" s="40"/>
-      <c r="U268" s="40"/>
-      <c r="V268" s="40"/>
-      <c r="W268" s="40"/>
-      <c r="X268" s="40"/>
-      <c r="Y268" s="40"/>
-      <c r="Z268" s="40"/>
-      <c r="AA268" s="40"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="39" t="s">
-        <v>448</v>
-      </c>
-      <c r="B270" s="40"/>
-      <c r="C270" s="40"/>
-      <c r="D270" s="40"/>
-      <c r="E270" s="40"/>
-      <c r="F270" s="40"/>
-      <c r="G270" s="40"/>
-      <c r="H270" s="40"/>
-      <c r="I270" s="40"/>
-      <c r="J270" s="40"/>
-      <c r="K270" s="40"/>
-      <c r="L270" s="40"/>
-      <c r="M270" s="40"/>
-      <c r="N270" s="40"/>
-      <c r="O270" s="40"/>
-      <c r="P270" s="40"/>
-      <c r="Q270" s="40"/>
-      <c r="R270" s="40"/>
-      <c r="S270" s="40"/>
-      <c r="T270" s="40"/>
-      <c r="U270" s="40"/>
-      <c r="V270" s="40"/>
-      <c r="W270" s="40"/>
-      <c r="X270" s="40"/>
-      <c r="Y270" s="40"/>
-      <c r="Z270" s="40"/>
-      <c r="AA270" s="40"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="B271" s="16" t="s">
-        <v>450</v>
-      </c>
-      <c r="C271" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="D271" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="E271" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="F271" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="G271" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="H271" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="I271" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="J271" s="20"/>
-      <c r="K271" s="20"/>
-      <c r="L271" s="20"/>
-      <c r="M271" s="20"/>
-      <c r="N271" s="20"/>
-      <c r="O271" s="20"/>
-      <c r="P271" s="20"/>
-      <c r="Q271" s="20"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="39" t="s">
-        <v>458</v>
-      </c>
-      <c r="B273" s="40"/>
-      <c r="C273" s="40"/>
-      <c r="D273" s="40"/>
-      <c r="E273" s="40"/>
-      <c r="F273" s="40"/>
-      <c r="G273" s="40"/>
-      <c r="H273" s="40"/>
-      <c r="I273" s="40"/>
-      <c r="J273" s="40"/>
-      <c r="K273" s="40"/>
-      <c r="L273" s="40"/>
-      <c r="M273" s="40"/>
-      <c r="N273" s="40"/>
-      <c r="O273" s="40"/>
-      <c r="P273" s="40"/>
-      <c r="Q273" s="40"/>
-      <c r="R273" s="40"/>
-      <c r="S273" s="40"/>
-      <c r="T273" s="40"/>
-      <c r="U273" s="40"/>
-      <c r="V273" s="40"/>
-      <c r="W273" s="40"/>
-      <c r="X273" s="40"/>
-      <c r="Y273" s="40"/>
-      <c r="Z273" s="40"/>
-      <c r="AA273" s="40"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="B274" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="C274" s="17" t="s">
-        <v>461</v>
-      </c>
-      <c r="D274" s="18" t="s">
-        <v>462</v>
-      </c>
-      <c r="E274" s="18" t="s">
-        <v>463</v>
-      </c>
-      <c r="F274" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="G274" s="46" t="s">
-        <v>465</v>
-      </c>
-      <c r="H274" s="22"/>
-      <c r="I274" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="J274" s="20"/>
-      <c r="K274" s="20"/>
-      <c r="L274" s="20"/>
-      <c r="M274" s="20"/>
-      <c r="N274" s="20"/>
-      <c r="O274" s="20"/>
-      <c r="P274" s="20"/>
-      <c r="Q274" s="20"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="47" t="s">
-        <v>467</v>
-      </c>
-      <c r="B276" s="48"/>
-      <c r="C276" s="48"/>
-      <c r="D276" s="48"/>
-      <c r="E276" s="48"/>
-      <c r="F276" s="48"/>
-      <c r="G276" s="48"/>
-      <c r="H276" s="48"/>
-      <c r="I276" s="48"/>
-      <c r="J276" s="48"/>
-      <c r="K276" s="48"/>
-      <c r="L276" s="48"/>
-      <c r="M276" s="48"/>
-      <c r="N276" s="48"/>
-      <c r="O276" s="48"/>
-      <c r="P276" s="48"/>
-      <c r="Q276" s="48"/>
-      <c r="R276" s="48"/>
-      <c r="S276" s="48"/>
-      <c r="T276" s="48"/>
-      <c r="U276" s="48"/>
-      <c r="V276" s="48"/>
-      <c r="W276" s="48"/>
-      <c r="X276" s="48"/>
-      <c r="Y276" s="48"/>
-      <c r="Z276" s="48"/>
-      <c r="AA276" s="48"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="39" t="s">
-        <v>468</v>
-      </c>
-      <c r="B278" s="40"/>
-      <c r="C278" s="40"/>
-      <c r="D278" s="40"/>
-      <c r="E278" s="40"/>
-      <c r="F278" s="40"/>
-      <c r="G278" s="40"/>
-      <c r="H278" s="40"/>
-      <c r="I278" s="40"/>
-      <c r="J278" s="40"/>
-      <c r="K278" s="40"/>
-      <c r="L278" s="40"/>
-      <c r="M278" s="40"/>
-      <c r="N278" s="40"/>
-      <c r="O278" s="40"/>
-      <c r="P278" s="40"/>
-      <c r="Q278" s="40"/>
-      <c r="R278" s="40"/>
-      <c r="S278" s="40"/>
-      <c r="T278" s="40"/>
-      <c r="U278" s="40"/>
-      <c r="V278" s="40"/>
-      <c r="W278" s="40"/>
-      <c r="X278" s="40"/>
-      <c r="Y278" s="40"/>
-      <c r="Z278" s="40"/>
-      <c r="AA278" s="40"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="39" t="s">
-        <v>469</v>
-      </c>
-      <c r="B280" s="40"/>
-      <c r="C280" s="40"/>
-      <c r="D280" s="40"/>
-      <c r="E280" s="40"/>
-      <c r="F280" s="40"/>
-      <c r="G280" s="40"/>
-      <c r="H280" s="40"/>
-      <c r="I280" s="40"/>
-      <c r="J280" s="40"/>
-      <c r="K280" s="40"/>
-      <c r="L280" s="40"/>
-      <c r="M280" s="40"/>
-      <c r="N280" s="40"/>
-      <c r="O280" s="40"/>
-      <c r="P280" s="40"/>
-      <c r="Q280" s="40"/>
-      <c r="R280" s="40"/>
-      <c r="S280" s="40"/>
-      <c r="T280" s="40"/>
-      <c r="U280" s="40"/>
-      <c r="V280" s="40"/>
-      <c r="W280" s="40"/>
-      <c r="X280" s="40"/>
-      <c r="Y280" s="40"/>
-      <c r="Z280" s="40"/>
-      <c r="AA280" s="40"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="26" t="s">
-        <v>470</v>
-      </c>
-      <c r="B281" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="C281" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="D281" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="E281" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="F281" s="19" t="s">
-        <v>475</v>
-      </c>
-      <c r="G281" s="25" t="s">
-        <v>476</v>
-      </c>
-      <c r="H281" s="18" t="s">
-        <v>477</v>
-      </c>
-      <c r="I281" s="19" t="s">
-        <v>478</v>
-      </c>
-      <c r="J281" s="20"/>
-      <c r="K281" s="20"/>
-      <c r="L281" s="20"/>
-      <c r="M281" s="20"/>
-      <c r="N281" s="20"/>
-      <c r="O281" s="20"/>
-      <c r="P281" s="20"/>
-      <c r="Q281" s="20"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="39" t="s">
-        <v>479</v>
-      </c>
-      <c r="B283" s="40"/>
-      <c r="C283" s="40"/>
-      <c r="D283" s="40"/>
-      <c r="E283" s="40"/>
-      <c r="F283" s="40"/>
-      <c r="G283" s="40"/>
-      <c r="H283" s="40"/>
-      <c r="I283" s="40"/>
-      <c r="J283" s="40"/>
-      <c r="K283" s="40"/>
-      <c r="L283" s="40"/>
-      <c r="M283" s="40"/>
-      <c r="N283" s="40"/>
-      <c r="O283" s="40"/>
-      <c r="P283" s="40"/>
-      <c r="Q283" s="40"/>
-      <c r="R283" s="40"/>
-      <c r="S283" s="40"/>
-      <c r="T283" s="40"/>
-      <c r="U283" s="40"/>
-      <c r="V283" s="40"/>
-      <c r="W283" s="40"/>
-      <c r="X283" s="40"/>
-      <c r="Y283" s="40"/>
-      <c r="Z283" s="40"/>
-      <c r="AA283" s="40"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5742,108 +3584,108 @@
     <hyperlink r:id="rId54" ref="F17"/>
     <hyperlink r:id="rId55" ref="G17"/>
     <hyperlink r:id="rId56" ref="I17"/>
-    <hyperlink r:id="rId57" ref="C19"/>
-    <hyperlink r:id="rId58" ref="F19"/>
-    <hyperlink r:id="rId59" ref="I19"/>
-    <hyperlink r:id="rId60" ref="C20"/>
-    <hyperlink r:id="rId61" ref="F20"/>
-    <hyperlink r:id="rId62" ref="I20"/>
-    <hyperlink r:id="rId63" ref="C21"/>
-    <hyperlink r:id="rId64" ref="F21"/>
-    <hyperlink r:id="rId65" ref="G21"/>
-    <hyperlink r:id="rId66" ref="I21"/>
-    <hyperlink r:id="rId67" ref="C22"/>
-    <hyperlink r:id="rId68" ref="F22"/>
-    <hyperlink r:id="rId69" ref="I22"/>
-    <hyperlink r:id="rId70" ref="C23"/>
-    <hyperlink r:id="rId71" ref="F23"/>
-    <hyperlink r:id="rId72" ref="I23"/>
-    <hyperlink r:id="rId73" ref="C24"/>
-    <hyperlink r:id="rId74" ref="F24"/>
-    <hyperlink r:id="rId75" ref="I24"/>
-    <hyperlink r:id="rId76" ref="C25"/>
-    <hyperlink r:id="rId77" ref="F25"/>
-    <hyperlink r:id="rId78" ref="I25"/>
-    <hyperlink r:id="rId79" ref="C26"/>
-    <hyperlink r:id="rId80" ref="F26"/>
-    <hyperlink r:id="rId81" ref="I26"/>
-    <hyperlink r:id="rId82" ref="C27"/>
-    <hyperlink r:id="rId83" ref="E27"/>
-    <hyperlink r:id="rId84" ref="F27"/>
-    <hyperlink r:id="rId85" ref="G27"/>
-    <hyperlink r:id="rId86" ref="H27"/>
-    <hyperlink r:id="rId87" ref="I27"/>
-    <hyperlink r:id="rId88" ref="C28"/>
-    <hyperlink r:id="rId89" ref="E28"/>
-    <hyperlink r:id="rId90" ref="F28"/>
-    <hyperlink r:id="rId91" ref="G28"/>
-    <hyperlink r:id="rId92" ref="I28"/>
-    <hyperlink r:id="rId93" ref="C133"/>
-    <hyperlink r:id="rId94" ref="F133"/>
-    <hyperlink r:id="rId95" location="gradadmin.html" ref="I133"/>
-    <hyperlink r:id="rId96" ref="C136"/>
-    <hyperlink r:id="rId97" ref="E136"/>
-    <hyperlink r:id="rId98" ref="F136"/>
-    <hyperlink r:id="rId99" ref="I136"/>
-    <hyperlink r:id="rId100" ref="C158"/>
-    <hyperlink r:id="rId101" ref="F158"/>
-    <hyperlink r:id="rId102" ref="G158"/>
-    <hyperlink r:id="rId103" ref="I158"/>
-    <hyperlink r:id="rId104" ref="C159"/>
-    <hyperlink r:id="rId105" ref="F159"/>
-    <hyperlink r:id="rId106" ref="G159"/>
-    <hyperlink r:id="rId107" ref="I159"/>
-    <hyperlink r:id="rId108" ref="C177"/>
-    <hyperlink r:id="rId109" ref="F177"/>
-    <hyperlink r:id="rId110" ref="I177"/>
-    <hyperlink r:id="rId111" ref="C178"/>
-    <hyperlink r:id="rId112" ref="D178"/>
-    <hyperlink r:id="rId113" ref="F178"/>
-    <hyperlink r:id="rId114" ref="G178"/>
-    <hyperlink r:id="rId115" ref="I178"/>
-    <hyperlink r:id="rId116" ref="C179"/>
-    <hyperlink r:id="rId117" ref="F179"/>
-    <hyperlink r:id="rId118" ref="I179"/>
-    <hyperlink r:id="rId119" ref="C180"/>
-    <hyperlink r:id="rId120" ref="F180"/>
-    <hyperlink r:id="rId121" ref="G180"/>
-    <hyperlink r:id="rId122" ref="H180"/>
-    <hyperlink r:id="rId123" ref="I180"/>
-    <hyperlink r:id="rId124" ref="C189"/>
-    <hyperlink r:id="rId125" ref="F189"/>
-    <hyperlink r:id="rId126" ref="G189"/>
-    <hyperlink r:id="rId127" ref="I189"/>
-    <hyperlink r:id="rId128" ref="C198"/>
-    <hyperlink r:id="rId129" ref="F198"/>
-    <hyperlink r:id="rId130" ref="G198"/>
-    <hyperlink r:id="rId131" ref="I198"/>
-    <hyperlink r:id="rId132" ref="C213"/>
-    <hyperlink r:id="rId133" ref="F213"/>
-    <hyperlink r:id="rId134" ref="G213"/>
-    <hyperlink r:id="rId135" ref="I213"/>
-    <hyperlink r:id="rId136" ref="C240"/>
-    <hyperlink r:id="rId137" ref="F240"/>
-    <hyperlink r:id="rId138" ref="I240"/>
-    <hyperlink r:id="rId139" ref="C251"/>
-    <hyperlink r:id="rId140" ref="D251"/>
-    <hyperlink r:id="rId141" ref="F251"/>
-    <hyperlink r:id="rId142" ref="G251"/>
-    <hyperlink r:id="rId143" ref="I251"/>
-    <hyperlink r:id="rId144" ref="C264"/>
-    <hyperlink r:id="rId145" ref="F264"/>
-    <hyperlink r:id="rId146" ref="I264"/>
-    <hyperlink r:id="rId147" ref="C271"/>
-    <hyperlink r:id="rId148" ref="F271"/>
-    <hyperlink r:id="rId149" ref="I271"/>
-    <hyperlink r:id="rId150" ref="C274"/>
-    <hyperlink r:id="rId151" ref="F274"/>
-    <hyperlink r:id="rId152" ref="G274"/>
-    <hyperlink r:id="rId153" ref="I274"/>
-    <hyperlink r:id="rId154" ref="C281"/>
-    <hyperlink r:id="rId155" ref="D281"/>
-    <hyperlink r:id="rId156" ref="F281"/>
-    <hyperlink r:id="rId157" ref="G281"/>
-    <hyperlink r:id="rId158" ref="I281"/>
+    <hyperlink r:id="rId57" ref="C18"/>
+    <hyperlink r:id="rId58" ref="F18"/>
+    <hyperlink r:id="rId59" ref="I18"/>
+    <hyperlink r:id="rId60" ref="C19"/>
+    <hyperlink r:id="rId61" ref="F19"/>
+    <hyperlink r:id="rId62" ref="I19"/>
+    <hyperlink r:id="rId63" ref="C20"/>
+    <hyperlink r:id="rId64" ref="F20"/>
+    <hyperlink r:id="rId65" ref="G20"/>
+    <hyperlink r:id="rId66" ref="I20"/>
+    <hyperlink r:id="rId67" ref="C21"/>
+    <hyperlink r:id="rId68" ref="F21"/>
+    <hyperlink r:id="rId69" ref="I21"/>
+    <hyperlink r:id="rId70" ref="C22"/>
+    <hyperlink r:id="rId71" ref="F22"/>
+    <hyperlink r:id="rId72" ref="I22"/>
+    <hyperlink r:id="rId73" ref="C23"/>
+    <hyperlink r:id="rId74" ref="F23"/>
+    <hyperlink r:id="rId75" ref="I23"/>
+    <hyperlink r:id="rId76" ref="C24"/>
+    <hyperlink r:id="rId77" ref="F24"/>
+    <hyperlink r:id="rId78" ref="I24"/>
+    <hyperlink r:id="rId79" ref="C25"/>
+    <hyperlink r:id="rId80" ref="F25"/>
+    <hyperlink r:id="rId81" ref="I25"/>
+    <hyperlink r:id="rId82" ref="C26"/>
+    <hyperlink r:id="rId83" ref="E26"/>
+    <hyperlink r:id="rId84" ref="F26"/>
+    <hyperlink r:id="rId85" ref="G26"/>
+    <hyperlink r:id="rId86" ref="H26"/>
+    <hyperlink r:id="rId87" ref="I26"/>
+    <hyperlink r:id="rId88" ref="C27"/>
+    <hyperlink r:id="rId89" ref="E27"/>
+    <hyperlink r:id="rId90" ref="F27"/>
+    <hyperlink r:id="rId91" ref="G27"/>
+    <hyperlink r:id="rId92" ref="I27"/>
+    <hyperlink r:id="rId93" ref="C28"/>
+    <hyperlink r:id="rId94" ref="F28"/>
+    <hyperlink r:id="rId95" location="gradadmin.html" ref="I28"/>
+    <hyperlink r:id="rId96" ref="C29"/>
+    <hyperlink r:id="rId97" ref="E29"/>
+    <hyperlink r:id="rId98" ref="F29"/>
+    <hyperlink r:id="rId99" ref="I29"/>
+    <hyperlink r:id="rId100" ref="C31"/>
+    <hyperlink r:id="rId101" ref="F31"/>
+    <hyperlink r:id="rId102" ref="G31"/>
+    <hyperlink r:id="rId103" ref="I31"/>
+    <hyperlink r:id="rId104" ref="C32"/>
+    <hyperlink r:id="rId105" ref="F32"/>
+    <hyperlink r:id="rId106" ref="G32"/>
+    <hyperlink r:id="rId107" ref="I32"/>
+    <hyperlink r:id="rId108" ref="C33"/>
+    <hyperlink r:id="rId109" ref="F33"/>
+    <hyperlink r:id="rId110" ref="I33"/>
+    <hyperlink r:id="rId111" ref="C34"/>
+    <hyperlink r:id="rId112" ref="D34"/>
+    <hyperlink r:id="rId113" ref="F34"/>
+    <hyperlink r:id="rId114" ref="G34"/>
+    <hyperlink r:id="rId115" ref="I34"/>
+    <hyperlink r:id="rId116" ref="C35"/>
+    <hyperlink r:id="rId117" ref="F35"/>
+    <hyperlink r:id="rId118" ref="I35"/>
+    <hyperlink r:id="rId119" ref="C36"/>
+    <hyperlink r:id="rId120" ref="F36"/>
+    <hyperlink r:id="rId121" ref="G36"/>
+    <hyperlink r:id="rId122" ref="H36"/>
+    <hyperlink r:id="rId123" ref="I36"/>
+    <hyperlink r:id="rId124" ref="C37"/>
+    <hyperlink r:id="rId125" ref="F37"/>
+    <hyperlink r:id="rId126" ref="G37"/>
+    <hyperlink r:id="rId127" ref="I37"/>
+    <hyperlink r:id="rId128" ref="C38"/>
+    <hyperlink r:id="rId129" ref="F38"/>
+    <hyperlink r:id="rId130" ref="G38"/>
+    <hyperlink r:id="rId131" ref="I38"/>
+    <hyperlink r:id="rId132" ref="C39"/>
+    <hyperlink r:id="rId133" ref="F39"/>
+    <hyperlink r:id="rId134" ref="G39"/>
+    <hyperlink r:id="rId135" ref="I39"/>
+    <hyperlink r:id="rId136" ref="C40"/>
+    <hyperlink r:id="rId137" ref="F40"/>
+    <hyperlink r:id="rId138" ref="I40"/>
+    <hyperlink r:id="rId139" ref="C42"/>
+    <hyperlink r:id="rId140" ref="D42"/>
+    <hyperlink r:id="rId141" ref="F42"/>
+    <hyperlink r:id="rId142" ref="G42"/>
+    <hyperlink r:id="rId143" ref="I42"/>
+    <hyperlink r:id="rId144" ref="C44"/>
+    <hyperlink r:id="rId145" ref="F44"/>
+    <hyperlink r:id="rId146" ref="I44"/>
+    <hyperlink r:id="rId147" ref="C45"/>
+    <hyperlink r:id="rId148" ref="F45"/>
+    <hyperlink r:id="rId149" ref="I45"/>
+    <hyperlink r:id="rId150" ref="C46"/>
+    <hyperlink r:id="rId151" ref="F46"/>
+    <hyperlink r:id="rId152" ref="G46"/>
+    <hyperlink r:id="rId153" ref="I46"/>
+    <hyperlink r:id="rId154" ref="C47"/>
+    <hyperlink r:id="rId155" ref="D47"/>
+    <hyperlink r:id="rId156" ref="F47"/>
+    <hyperlink r:id="rId157" ref="G47"/>
+    <hyperlink r:id="rId158" ref="I47"/>
   </hyperlinks>
   <drawing r:id="rId159"/>
 </worksheet>
